--- a/CajaInternet.xlsx
+++ b/CajaInternet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TODO TIPO DE DOCUMENTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TODO TIPO DE DOCUMENTOS\Nueva carpeta\Caja\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -168,6 +168,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -175,15 +184,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -478,7 +478,7 @@
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:E34"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,46 +489,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
-      <c r="G1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10"/>
-      <c r="M1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="10"/>
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="G1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+      <c r="M1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="13"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="14">
         <v>43254</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="13"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="13"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="G2" s="14">
+        <v>43261</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="16"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="16"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -588,7 +590,9 @@
         <f>SUM(A4*B4)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
       <c r="E4" s="2">
         <f>SUM(A4*D4)</f>
         <v>0</v>
@@ -596,15 +600,19 @@
       <c r="G4" s="2">
         <v>0.05</v>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="6">
+        <v>3</v>
+      </c>
       <c r="I4" s="7">
         <f t="shared" ref="I4:I13" si="0">SUM(G4*H4)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="1"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
       <c r="K4" s="2">
         <f>SUM(G4*J4)</f>
-        <v>0</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="M4" s="2">
         <v>0.05</v>
@@ -631,23 +639,29 @@
         <f t="shared" ref="C5:C13" si="2">SUM(A5*B5)</f>
         <v>0.1</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
       <c r="E5" s="2">
         <f>SUM(A5*D5)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G5" s="2">
         <v>0.1</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="6">
+        <v>18</v>
+      </c>
       <c r="I5" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="J5" s="1">
+        <v>18</v>
+      </c>
       <c r="K5" s="2">
         <f>SUM(G5*J5)</f>
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="M5" s="2">
         <v>0.1</v>
@@ -674,23 +688,29 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
       <c r="E6" s="2">
         <f t="shared" ref="E6:E13" si="3">SUM(A6*D6)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G6" s="2">
         <v>0.25</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="6">
+        <v>7</v>
+      </c>
       <c r="I6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="1"/>
+        <v>1.75</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5</v>
+      </c>
       <c r="K6" s="2">
         <f t="shared" ref="K6:K13" si="4">SUM(G6*J6)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M6" s="2">
         <v>0.25</v>
@@ -717,7 +737,9 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
       <c r="E7" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -725,12 +747,16 @@
       <c r="G7" s="2">
         <v>0.5</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
       <c r="I7" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
       <c r="K7" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -760,20 +786,26 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1">
+        <v>9</v>
+      </c>
       <c r="E8" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="6">
+        <v>6</v>
+      </c>
       <c r="I8" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
       <c r="K8" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -803,7 +835,9 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
       <c r="E9" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -811,15 +845,19 @@
       <c r="G9" s="2">
         <v>5</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="6">
+        <v>10</v>
+      </c>
       <c r="I9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="J9" s="1">
+        <v>11</v>
+      </c>
       <c r="K9" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="M9" s="2">
         <v>5</v>
@@ -846,23 +884,29 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1">
+        <v>10</v>
+      </c>
       <c r="E10" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="2">
         <v>10</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="6">
+        <v>2</v>
+      </c>
       <c r="I10" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="J10" s="1">
+        <v>6</v>
+      </c>
       <c r="K10" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M10" s="2">
         <v>10</v>
@@ -889,23 +933,29 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
       <c r="E11" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G11" s="2">
         <v>20</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
       <c r="I11" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3</v>
+      </c>
       <c r="K11" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M11" s="2">
         <v>20</v>
@@ -932,20 +982,26 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
       <c r="E12" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G12" s="2">
         <v>50</v>
       </c>
-      <c r="H12" s="6"/>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
       <c r="I12" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
       <c r="K12" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -975,7 +1031,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
       <c r="E13" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -983,12 +1041,16 @@
       <c r="G13" s="2">
         <v>100</v>
       </c>
-      <c r="H13" s="6"/>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
       <c r="I13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
       <c r="K13" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1017,19 +1079,22 @@
         <v>196.6</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2">
+        <f>SUM(E4:E13)</f>
+        <v>269.35000000000002</v>
+      </c>
       <c r="G14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7">
         <f>SUM(I4:I13)</f>
-        <v>0</v>
+        <v>100.2</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="2">
         <f>SUM(K4:K13)</f>
-        <v>0</v>
+        <v>178.2</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>3</v>
@@ -1046,44 +1111,44 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="G17" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="10"/>
-      <c r="M17" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="10"/>
+      <c r="A17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="G17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="13"/>
+      <c r="M17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="16"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="10"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="10"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -1584,44 +1649,44 @@
       </c>
     </row>
     <row r="33" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10"/>
-      <c r="G33" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="10"/>
-      <c r="M33" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="10"/>
+      <c r="A33" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="13"/>
+      <c r="G33" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="13"/>
+      <c r="M33" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="13"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="13"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="13"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="13"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="16"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="16"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="16"/>
     </row>
     <row r="35" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">

--- a/CajaInternet.xlsx
+++ b/CajaInternet.xlsx
@@ -177,6 +177,15 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -184,15 +193,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -477,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,48 +489,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
-      <c r="G1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
-      <c r="M1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="13"/>
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
+      <c r="G1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
+      <c r="M1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="16"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="11">
         <v>43254</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-      <c r="G2" s="14">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="G2" s="11">
         <v>43261</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="16"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="16"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="13"/>
+      <c r="M2" s="11">
+        <v>43268</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -617,10 +619,12 @@
       <c r="M4" s="2">
         <v>0.05</v>
       </c>
-      <c r="N4" s="6"/>
+      <c r="N4" s="6">
+        <v>5</v>
+      </c>
       <c r="O4" s="7">
         <f t="shared" ref="O4:O13" si="1">SUM(M4*N4)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="2">
@@ -666,10 +670,12 @@
       <c r="M5" s="2">
         <v>0.1</v>
       </c>
-      <c r="N5" s="6"/>
+      <c r="N5" s="6">
+        <v>19</v>
+      </c>
       <c r="O5" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="2">
@@ -715,10 +721,12 @@
       <c r="M6" s="2">
         <v>0.25</v>
       </c>
-      <c r="N6" s="6"/>
+      <c r="N6" s="6">
+        <v>15</v>
+      </c>
       <c r="O6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="2">
@@ -764,10 +772,12 @@
       <c r="M7" s="2">
         <v>0.5</v>
       </c>
-      <c r="N7" s="6"/>
+      <c r="N7" s="6">
+        <v>29</v>
+      </c>
       <c r="O7" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="2">
@@ -813,10 +823,12 @@
       <c r="M8" s="2">
         <v>1</v>
       </c>
-      <c r="N8" s="6"/>
+      <c r="N8" s="6">
+        <v>23</v>
+      </c>
       <c r="O8" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="2">
@@ -862,10 +874,12 @@
       <c r="M9" s="2">
         <v>5</v>
       </c>
-      <c r="N9" s="6"/>
+      <c r="N9" s="6">
+        <v>12</v>
+      </c>
       <c r="O9" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="2">
@@ -911,7 +925,9 @@
       <c r="M10" s="2">
         <v>10</v>
       </c>
-      <c r="N10" s="6"/>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
       <c r="O10" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -960,7 +976,9 @@
       <c r="M11" s="2">
         <v>20</v>
       </c>
-      <c r="N11" s="6"/>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
       <c r="O11" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1009,10 +1027,12 @@
       <c r="M12" s="2">
         <v>50</v>
       </c>
-      <c r="N12" s="6"/>
+      <c r="N12" s="6">
+        <v>1</v>
+      </c>
       <c r="O12" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="2">
@@ -1058,7 +1078,9 @@
       <c r="M13" s="2">
         <v>100</v>
       </c>
-      <c r="N13" s="6"/>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
       <c r="O13" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1102,7 +1124,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7">
         <f>SUM(O4:O13)</f>
-        <v>0</v>
+        <v>153.4</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="2">
@@ -1111,27 +1133,27 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="G17" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="13"/>
-      <c r="M17" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="13"/>
+      <c r="A17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="G17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="16"/>
+      <c r="M17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="16"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
@@ -1649,44 +1671,44 @@
       </c>
     </row>
     <row r="33" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="13"/>
-      <c r="G33" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="13"/>
-      <c r="M33" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="13"/>
+      <c r="A33" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="16"/>
+      <c r="G33" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="16"/>
+      <c r="M33" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="16"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="16"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="16"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="16"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="13"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="13"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="13"/>
     </row>
     <row r="35" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
@@ -2188,12 +2210,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="M34:Q34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="M33:Q33"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="G17:K17"/>
     <mergeCell ref="M17:Q17"/>
@@ -2203,6 +2219,12 @@
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="G2:K2"/>
+    <mergeCell ref="M34:Q34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="M33:Q33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>

--- a/CajaInternet.xlsx
+++ b/CajaInternet.xlsx
@@ -177,6 +177,15 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -184,15 +193,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -478,7 +478,7 @@
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,50 +489,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
-      <c r="G1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
-      <c r="M1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="16"/>
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="G1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+      <c r="M1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="13"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="14">
         <v>43254</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="G2" s="11">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="G2" s="14">
         <v>43261</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="13"/>
-      <c r="M2" s="11">
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="16"/>
+      <c r="M2" s="14">
         <v>43268</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="13"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="16"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -626,10 +626,12 @@
         <f t="shared" ref="O4:O13" si="1">SUM(M4*N4)</f>
         <v>0.25</v>
       </c>
-      <c r="P4" s="1"/>
+      <c r="P4" s="1">
+        <v>5</v>
+      </c>
       <c r="Q4" s="2">
         <f>SUM(M4*P4)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -677,10 +679,12 @@
         <f t="shared" si="1"/>
         <v>1.9000000000000001</v>
       </c>
-      <c r="P5" s="1"/>
+      <c r="P5" s="1">
+        <v>19</v>
+      </c>
       <c r="Q5" s="2">
         <f>SUM(M5*P5)</f>
-        <v>0</v>
+        <v>1.9000000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -728,10 +732,12 @@
         <f t="shared" si="1"/>
         <v>3.75</v>
       </c>
-      <c r="P6" s="1"/>
+      <c r="P6" s="1">
+        <v>15</v>
+      </c>
       <c r="Q6" s="2">
         <f t="shared" ref="Q6:Q13" si="5">SUM(M6*P6)</f>
-        <v>0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -779,10 +785,12 @@
         <f t="shared" si="1"/>
         <v>14.5</v>
       </c>
-      <c r="P7" s="1"/>
+      <c r="P7" s="1">
+        <v>29</v>
+      </c>
       <c r="Q7" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -830,10 +838,12 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="P8" s="1"/>
+      <c r="P8" s="1">
+        <v>13</v>
+      </c>
       <c r="Q8" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -881,10 +891,12 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="P9" s="1"/>
+      <c r="P9" s="1">
+        <v>9</v>
+      </c>
       <c r="Q9" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -932,10 +944,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P10" s="1"/>
+      <c r="P10" s="1">
+        <v>4</v>
+      </c>
       <c r="Q10" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -983,7 +997,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P11" s="1"/>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
       <c r="Q11" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -1034,10 +1050,12 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="P12" s="1"/>
+      <c r="P12" s="1">
+        <v>2</v>
+      </c>
       <c r="Q12" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1085,7 +1103,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P13" s="1"/>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
       <c r="Q13" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -1129,31 +1149,31 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="2">
         <f>SUM(Q4:Q13)</f>
-        <v>0</v>
+        <v>218.4</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="G17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
-      <c r="M17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="16"/>
+      <c r="A17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="G17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="13"/>
+      <c r="M17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
@@ -1671,44 +1691,44 @@
       </c>
     </row>
     <row r="33" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="16"/>
-      <c r="G33" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="16"/>
-      <c r="M33" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="16"/>
+      <c r="A33" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="13"/>
+      <c r="G33" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="13"/>
+      <c r="M33" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="13"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="13"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="13"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="13"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="16"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="16"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="16"/>
     </row>
     <row r="35" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
@@ -2210,6 +2230,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="M34:Q34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="M33:Q33"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="G17:K17"/>
     <mergeCell ref="M17:Q17"/>
@@ -2219,12 +2245,6 @@
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="G2:K2"/>
-    <mergeCell ref="M34:Q34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="M33:Q33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>

--- a/CajaInternet.xlsx
+++ b/CajaInternet.xlsx
@@ -153,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -184,15 +184,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -477,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,27 +503,27 @@
       <c r="Q1" s="13"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="8">
         <v>43254</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-      <c r="G2" s="14">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="G2" s="8">
         <v>43261</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="16"/>
-      <c r="M2" s="14">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+      <c r="M2" s="8">
         <v>43268</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="16"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1176,7 +1167,9 @@
       <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
+      <c r="A18" s="8">
+        <v>43275</v>
+      </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1243,10 +1236,12 @@
       <c r="A20" s="2">
         <v>0.05</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="6">
+        <v>6</v>
+      </c>
       <c r="C20" s="7">
         <f t="shared" ref="C20:C29" si="6">SUM(A20*B20)</f>
-        <v>0</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="2">
@@ -1284,10 +1279,12 @@
       <c r="A21" s="2">
         <v>0.1</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="6">
+        <v>17</v>
+      </c>
       <c r="C21" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="2">
@@ -1325,10 +1322,12 @@
       <c r="A22" s="2">
         <v>0.25</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
       <c r="C22" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="2">
@@ -1366,7 +1365,9 @@
       <c r="A23" s="2">
         <v>0.5</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="6">
+        <v>0</v>
+      </c>
       <c r="C23" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -1407,10 +1408,12 @@
       <c r="A24" s="2">
         <v>1</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="6">
+        <v>6</v>
+      </c>
       <c r="C24" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="2">
@@ -1448,10 +1451,12 @@
       <c r="A25" s="2">
         <v>5</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="6">
+        <v>8</v>
+      </c>
       <c r="C25" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="2">
@@ -1489,7 +1494,9 @@
       <c r="A26" s="2">
         <v>10</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="6">
+        <v>0</v>
+      </c>
       <c r="C26" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -1530,7 +1537,9 @@
       <c r="A27" s="2">
         <v>20</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="6">
+        <v>0</v>
+      </c>
       <c r="C27" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -1571,7 +1580,9 @@
       <c r="A28" s="2">
         <v>50</v>
       </c>
-      <c r="B28" s="6"/>
+      <c r="B28" s="6">
+        <v>0</v>
+      </c>
       <c r="C28" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -1612,7 +1623,9 @@
       <c r="A29" s="2">
         <v>100</v>
       </c>
-      <c r="B29" s="6"/>
+      <c r="B29" s="6">
+        <v>0</v>
+      </c>
       <c r="C29" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -1656,7 +1669,7 @@
       <c r="B30" s="7"/>
       <c r="C30" s="7">
         <f>SUM(C20:C29)</f>
-        <v>0</v>
+        <v>48.25</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="2">
@@ -1714,21 +1727,21 @@
       <c r="Q33" s="13"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="16"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="16"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="16"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="10"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="10"/>
     </row>
     <row r="35" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
@@ -2229,13 +2242,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="M34:Q34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="M33:Q33"/>
+  <mergeCells count="18">
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="A18:E18"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="G17:K17"/>
     <mergeCell ref="M17:Q17"/>
@@ -2245,6 +2255,12 @@
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="G2:K2"/>
+    <mergeCell ref="M34:Q34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="M33:Q33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
